--- a/Results/Data.xlsx
+++ b/Results/Data.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18625"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\daniel\OneDrive\Documents\Fall 2017-DESKTOP-8KU0N3M\AI\Final Project\PerformanceData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Daniel\OneDrive\Documents\Fall 2017-DESKTOP-8KU0N3M\AI\Final Project\Results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="60" documentId="A7C8D5E197408A7A6F11FC02C10B6322E53A4DB7" xr6:coauthVersionLast="24" xr6:coauthVersionMax="24" xr10:uidLastSave="{DEB7AD69-2DBA-4D51-8917-3DD66F209A16}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="171027"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="37">
   <si>
     <t>Reproductive Percent\Population</t>
   </si>
@@ -127,12 +126,21 @@
   </si>
   <si>
     <t>Minimum: 6994 Avg: 7010    Time: 12.18(sec)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">64Perm = 34 22 20 11 63 1 10 25 4 41 17 39 28 33 37 58 49 21 45 44 40 46 61 15 36 50 60 52 55 24 19 56 54 51 62 32 57 23 59 48 14 18 53 9 31 13 29 12 6 16 64 26 7 3 8 5 43 30 47 35 27 38 2 42 </t>
+  </si>
+  <si>
+    <t>GA v GA &amp; WOC (Average of 10 Runs)</t>
+  </si>
+  <si>
+    <t>GA v GA &amp; WOC (Best of 10 Runs)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -252,6 +260,9 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -260,9 +271,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -279,6 +287,2300 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>GA</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> v GA &amp; WOC Optimal Percent</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>GA</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$D$15:$D$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>128</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$J$15:$J$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>99.892588614393134</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>99.55406911928651</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>99.169054441260741</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>96.05263157894737</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>89.230769230769241</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>52.459016393442624</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>GA &amp; WOC</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$D$15:$D$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>128</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$L$15:$L$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>99.51708766716196</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>99.568469505178371</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>98.206278026905821</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>95.081967213114751</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>50</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="103492696"/>
+        <c:axId val="103497792"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="103492696"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>N</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="103497792"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="103497792"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>%</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> Optimal</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="103492696"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>GA v GA &amp; WOC Timing</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.11841136624389018"/>
+          <c:y val="0.11443297996183399"/>
+          <c:w val="0.87753018372703417"/>
+          <c:h val="0.73577136191309422"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>GA</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$D$15:$D$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>128</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$N$15:$N$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>11.6</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>16.100000000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>13.1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>10.4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>83.5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>207.61</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>987.23</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>GA &amp; WOC</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$D$15:$D$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>128</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$O$15:$O$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>6.7</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>9.6</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>16.8</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>19.8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>101.6</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>309.74099999999999</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1113.19</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="103494264"/>
+        <c:axId val="103495048"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="103494264"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>N</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="103495048"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="103495048"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Seconds</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="103494264"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="5.660187163511584E-2"/>
+          <c:y val="0.92514079807820637"/>
+          <c:w val="0.29982578553392403"/>
+          <c:h val="6.3559766893545089E-2"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>23812</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>1181100</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>100012</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>533400</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>1314450</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -543,44 +2845,44 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="C2:O22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="C2:O35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="O23" sqref="O23"/>
+    <sheetView tabSelected="1" topLeftCell="B22" workbookViewId="0">
+      <selection activeCell="H29" sqref="H29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="9.86328125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="31.3984375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.265625" customWidth="1"/>
-    <col min="6" max="6" width="15.86328125" customWidth="1"/>
-    <col min="7" max="7" width="15.265625" customWidth="1"/>
-    <col min="8" max="8" width="19.59765625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="18.265625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="17.265625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="17" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="24.1328125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="31.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.28515625" customWidth="1"/>
+    <col min="6" max="6" width="15.85546875" customWidth="1"/>
+    <col min="7" max="7" width="20.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="19.5703125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="18.28515625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="18.7109375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="24.140625" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="24" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="11.86328125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="15.3984375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="15.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="3:15" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="2" spans="3:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D2" s="8" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="3" spans="3:15" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="D3" s="9" t="s">
+    <row r="3" spans="3:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D3" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="E3" s="10"/>
-      <c r="F3" s="10"/>
-      <c r="G3" s="11"/>
+      <c r="E3" s="11"/>
+      <c r="F3" s="11"/>
+      <c r="G3" s="12"/>
     </row>
-    <row r="4" spans="3:15" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="4" spans="3:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D4" s="2" t="s">
         <v>0</v>
       </c>
@@ -594,7 +2896,7 @@
         <v>5000</v>
       </c>
     </row>
-    <row r="5" spans="3:15" ht="43.15" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="5" spans="3:15" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D5" s="3">
         <v>0.02</v>
       </c>
@@ -608,7 +2910,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="3:15" ht="43.15" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="6" spans="3:15" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D6" s="3">
         <v>0.05</v>
       </c>
@@ -622,7 +2924,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="3:15" ht="43.15" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="7" spans="3:15" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D7" s="3">
         <v>0.08</v>
       </c>
@@ -632,34 +2934,34 @@
       <c r="F7" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="G7" s="12" t="s">
+      <c r="G7" s="9" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="11" spans="3:15" x14ac:dyDescent="0.45">
+    <row r="11" spans="3:15" x14ac:dyDescent="0.25">
       <c r="D11" s="8" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="12" spans="3:15" ht="14.65" thickBot="1" x14ac:dyDescent="0.5"/>
-    <row r="13" spans="3:15" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="C13" s="9" t="s">
+    <row r="12" spans="3:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="13" spans="3:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C13" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="D13" s="10"/>
-      <c r="E13" s="10"/>
-      <c r="F13" s="10"/>
-      <c r="G13" s="10"/>
-      <c r="H13" s="10"/>
-      <c r="I13" s="10"/>
-      <c r="J13" s="10"/>
-      <c r="K13" s="10"/>
-      <c r="L13" s="10"/>
-      <c r="M13" s="10"/>
-      <c r="N13" s="10"/>
-      <c r="O13" s="11"/>
+      <c r="D13" s="11"/>
+      <c r="E13" s="11"/>
+      <c r="F13" s="11"/>
+      <c r="G13" s="11"/>
+      <c r="H13" s="11"/>
+      <c r="I13" s="11"/>
+      <c r="J13" s="11"/>
+      <c r="K13" s="11"/>
+      <c r="L13" s="11"/>
+      <c r="M13" s="11"/>
+      <c r="N13" s="11"/>
+      <c r="O13" s="12"/>
     </row>
-    <row r="14" spans="3:15" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="14" spans="3:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C14" s="2" t="s">
         <v>12</v>
       </c>
@@ -700,7 +3002,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="15" spans="3:15" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="15" spans="3:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C15" s="1" t="s">
         <v>13</v>
       </c>
@@ -745,7 +3047,7 @@
         <v>6.7</v>
       </c>
     </row>
-    <row r="16" spans="3:15" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="16" spans="3:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C16" s="1" t="s">
         <v>18</v>
       </c>
@@ -790,7 +3092,7 @@
         <v>9.6</v>
       </c>
     </row>
-    <row r="17" spans="3:15" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="17" spans="3:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C17" s="1" t="s">
         <v>19</v>
       </c>
@@ -835,7 +3137,7 @@
         <v>16.8</v>
       </c>
     </row>
-    <row r="18" spans="3:15" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="18" spans="3:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C18" s="1" t="s">
         <v>14</v>
       </c>
@@ -880,7 +3182,7 @@
         <v>19.8</v>
       </c>
     </row>
-    <row r="19" spans="3:15" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="19" spans="3:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C19" s="1" t="s">
         <v>15</v>
       </c>
@@ -925,7 +3227,7 @@
         <v>101.6</v>
       </c>
     </row>
-    <row r="20" spans="3:15" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="20" spans="3:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C20" s="1" t="s">
         <v>16</v>
       </c>
@@ -935,30 +3237,42 @@
       <c r="E20" s="6">
         <v>116</v>
       </c>
-      <c r="F20" s="1"/>
-      <c r="G20" s="1"/>
-      <c r="H20" s="1"/>
-      <c r="I20" s="1"/>
-      <c r="J20" s="1" t="e">
+      <c r="F20" s="1">
+        <v>130</v>
+      </c>
+      <c r="G20" s="1">
+        <v>135</v>
+      </c>
+      <c r="H20" s="1">
+        <v>122</v>
+      </c>
+      <c r="I20" s="1">
+        <v>133</v>
+      </c>
+      <c r="J20" s="1">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K20" s="1" t="e">
+        <v>89.230769230769241</v>
+      </c>
+      <c r="K20" s="1">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L20" s="1" t="e">
+        <v>85.925925925925924</v>
+      </c>
+      <c r="L20" s="1">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M20" s="1" t="e">
+        <v>95.081967213114751</v>
+      </c>
+      <c r="M20" s="1">
         <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="N20" s="1"/>
-      <c r="O20" s="1"/>
+        <v>87.218045112781951</v>
+      </c>
+      <c r="N20" s="1">
+        <v>207.61</v>
+      </c>
+      <c r="O20" s="1">
+        <v>309.74099999999999</v>
+      </c>
     </row>
-    <row r="21" spans="3:15" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="21" spans="3:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C21" s="1" t="s">
         <v>17</v>
       </c>
@@ -996,20 +3310,252 @@
         <f t="shared" si="3"/>
         <v>45.390070921985817</v>
       </c>
-      <c r="N21" s="1"/>
+      <c r="N21" s="1">
+        <v>987.23</v>
+      </c>
       <c r="O21" s="1">
         <v>1113.19</v>
       </c>
     </row>
-    <row r="22" spans="3:15" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="22" spans="3:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="N22" s="1"/>
     </row>
+    <row r="26" spans="3:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D26" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="27" spans="3:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D27" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="E27" s="11"/>
+      <c r="F27" s="11"/>
+      <c r="G27" s="12"/>
+      <c r="I27" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="J27" s="11"/>
+      <c r="K27" s="11"/>
+      <c r="L27" s="12"/>
+    </row>
+    <row r="28" spans="3:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D28" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E28" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="F28" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="G28" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="I28" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="J28" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="K28" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="L28" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="29" spans="3:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D29" s="6">
+        <v>12</v>
+      </c>
+      <c r="E29" s="6">
+        <v>1652</v>
+      </c>
+      <c r="F29" s="6">
+        <v>1652</v>
+      </c>
+      <c r="G29" s="6">
+        <v>1652</v>
+      </c>
+      <c r="I29" s="6">
+        <v>12</v>
+      </c>
+      <c r="J29" s="6">
+        <v>1652</v>
+      </c>
+      <c r="K29" s="1">
+        <v>1659</v>
+      </c>
+      <c r="L29" s="1">
+        <v>1659</v>
+      </c>
+    </row>
+    <row r="30" spans="3:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D30" s="6">
+        <v>16</v>
+      </c>
+      <c r="E30" s="6">
+        <v>3720</v>
+      </c>
+      <c r="F30" s="6">
+        <v>3724</v>
+      </c>
+      <c r="G30" s="6">
+        <v>3720</v>
+      </c>
+      <c r="I30" s="6">
+        <v>16</v>
+      </c>
+      <c r="J30" s="6">
+        <v>3720</v>
+      </c>
+      <c r="K30" s="1">
+        <v>3733</v>
+      </c>
+      <c r="L30" s="1">
+        <v>3739</v>
+      </c>
+    </row>
+    <row r="31" spans="3:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D31" s="6">
+        <v>18</v>
+      </c>
+      <c r="E31" s="6">
+        <v>5358</v>
+      </c>
+      <c r="F31" s="6">
+        <v>5382</v>
+      </c>
+      <c r="G31" s="6">
+        <v>5384</v>
+      </c>
+      <c r="I31" s="6">
+        <v>18</v>
+      </c>
+      <c r="J31" s="6">
+        <v>5358</v>
+      </c>
+      <c r="K31" s="1">
+        <v>5419</v>
+      </c>
+      <c r="L31" s="1">
+        <v>5422</v>
+      </c>
+    </row>
+    <row r="32" spans="3:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D32" s="6">
+        <v>20</v>
+      </c>
+      <c r="E32" s="6">
+        <v>6922</v>
+      </c>
+      <c r="F32" s="6">
+        <v>6980</v>
+      </c>
+      <c r="G32" s="6">
+        <v>6952</v>
+      </c>
+      <c r="I32" s="6">
+        <v>20</v>
+      </c>
+      <c r="J32" s="6">
+        <v>6922</v>
+      </c>
+      <c r="K32" s="1">
+        <v>7015</v>
+      </c>
+      <c r="L32" s="1">
+        <v>7033</v>
+      </c>
+    </row>
+    <row r="33" spans="4:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D33" s="6">
+        <v>32</v>
+      </c>
+      <c r="E33" s="6">
+        <v>438</v>
+      </c>
+      <c r="F33" s="6">
+        <v>456</v>
+      </c>
+      <c r="G33" s="6">
+        <v>446</v>
+      </c>
+      <c r="I33" s="6">
+        <v>32</v>
+      </c>
+      <c r="J33" s="6">
+        <v>438</v>
+      </c>
+      <c r="K33" s="1">
+        <v>468</v>
+      </c>
+      <c r="L33" s="1">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="34" spans="4:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D34" s="6">
+        <v>64</v>
+      </c>
+      <c r="E34" s="6">
+        <v>116</v>
+      </c>
+      <c r="F34" s="6">
+        <v>130</v>
+      </c>
+      <c r="G34" s="6">
+        <v>122</v>
+      </c>
+      <c r="I34" s="6">
+        <v>64</v>
+      </c>
+      <c r="J34" s="6">
+        <v>116</v>
+      </c>
+      <c r="K34" s="1">
+        <v>135</v>
+      </c>
+      <c r="L34" s="1">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="35" spans="4:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D35" s="6">
+        <v>128</v>
+      </c>
+      <c r="E35" s="6">
+        <v>64</v>
+      </c>
+      <c r="F35" s="6">
+        <v>122</v>
+      </c>
+      <c r="G35" s="6">
+        <v>128</v>
+      </c>
+      <c r="I35" s="6">
+        <v>128</v>
+      </c>
+      <c r="J35" s="6">
+        <v>64</v>
+      </c>
+      <c r="K35" s="1">
+        <v>147</v>
+      </c>
+      <c r="L35" s="1">
+        <v>141</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="4">
     <mergeCell ref="D3:G3"/>
     <mergeCell ref="C13:O13"/>
+    <mergeCell ref="D27:G27"/>
+    <mergeCell ref="I27:L27"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>